--- a/biology/Médecine/Diaphyse/Diaphyse.xlsx
+++ b/biology/Médecine/Diaphyse/Diaphyse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La diaphyse (ou corps osseux) est la partie médiane d'un os long. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme diaphyse vient du grec dia- signifiant à travers et de physis signifiant formation.
 </t>
@@ -542,7 +556,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La diaphyse d'un os long forme un tube d'os cortical entre les deux métaphyses qui la séparent des épiphyses. Elle constitue l'axe longitudinal de l'os. 
 Le canal forme la cavité médullaire enfermant la moelle osseuse jaune.
@@ -575,7 +591,9 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ossification de la diaphyse se fait pendant le 3e mois de vie embryonnaire.
 La croissance en épaisseur de la diaphyse est assurée par le périoste.
